--- a/stimuli/stimuli_options.xlsx
+++ b/stimuli/stimuli_options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/SPAML/SPAML-PSA/stimuli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F70E5D69-E645-6C41-9F26-B043CE2B2447}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9BFABC-05D9-6E4B-A8D5-DFEFFBA7E094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-700" windowWidth="25600" windowHeight="14400"/>
+    <workbookView xWindow="1600" yWindow="2040" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="udpipe_languages" sheetId="1" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2423,11 +2423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4571,7 +4571,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
